--- a/Data/1.xlsx
+++ b/Data/1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,6 @@
       <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -469,47 +463,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c TIME\n\x0c 0900 - 0950\n\x0c</t>
+          <t xml:space="preserve"> \x0c 0900 - 0950\n\x0c</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> MONDAY\n\x0c WEEK 2-16\n\nITX103 LECO2\nJINDSGP\nLEARNING\nIT\n\nINNYP\n\x0c</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c MONDAY\n\x0c \x0c WEEK 2-16\nITX103 LECO2\nUNDSGP\nFLEARNING\nSIT\n\nGINNYP\n\x0c</t>
+          <t xml:space="preserve"> TUESDAY\n\x0c \x0c</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c TUESDAY\n\x0c \x0c</t>
+          <t xml:space="preserve"> WEDNESDAY\n\x0c \x0c</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c WEDNESDAY\n\x0c \x0c</t>
+          <t xml:space="preserve"> THURSDAY\n\x0c \x0c</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c THURSDAY\n\x0c \x0c \x0c</t>
+          <t xml:space="preserve"> FRIDAY\n\x0c WEEK 1-17\nIT-DIT PEM13\nDITPEM\nELEARNING\nSIT\n\nLEOWZZ\n\x0c</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c FRIDAY\n\x0c WEEK 1-17\nIT-DIT PEM13\nDITPEM\nFLEARNING\nSIT\n\nLEOWZZ\n\x0c</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c SATURDAY\n\x0c \x0c</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c see-- 4+ 6 oes cee\n\x0c</t>
+          <t xml:space="preserve"> SATURDAY\n\x0c \x0c</t>
         </is>
       </c>
     </row>
@@ -519,12 +503,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1000 - 1050\n\x0c \x0c</t>
+          <t xml:space="preserve"> 0 - 1050\n\x0c</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -539,25 +523,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\n[T1166 LABO3\nAPPDPJ\nL.639 SIT\nCL22\nCHUAYK\n\x0c</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111166 LABO3\nAPPDPJ\nL.639 SIT\nCL22\nCHUAYK\n\x0c</t>
+          <t xml:space="preserve"> WEEK 2-16\nT0101 TUTO3\nPCS1\nELEARNING\nSIT\n\nLEOWZZ\n\x0c</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WEEK 2-16\nITX101 TUTO3\nPCS1\nFLEARNING\nSIT\n\nLEOWZZ\n\x0c</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t xml:space="preserve"> \x0c</t>
         </is>
@@ -569,45 +543,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1100 - 1150\n\x0c</t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\nT1164 LABO3\nAV\n629 SIT\nL14\nEEFY\n\x0c</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111164 LABO3\nDAV\n\nL.629 SIT\nCL14\n\nLEEFY\n\x0c</t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\n[T1166 LABOS\nAPPDPJ\nL.639 SIT\nCL22\nCHUAYK\n\x0c</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111166 LABO3\nAPPDPJ\nL.639 SIT\nCL22\nCHUAYK\n\x0c</t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t xml:space="preserve"> \x0c</t>
         </is>
@@ -619,22 +583,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1200 - 1250\n\x0c</t>
+          <t xml:space="preserve"> 0 - 1250\n\x0c</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\nT1164 LABO3\nAV\n629 SIT\nLi4\nEEFY\n\x0c</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111164 LABO3\nDAV\n\nL.629 SIT\nCL14\n\nLEEFY\n\x0c</t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -648,16 +612,6 @@
         </is>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
         <is>
           <t xml:space="preserve"> \x0c</t>
         </is>
@@ -669,45 +623,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c</t>
+          <t xml:space="preserve"> 00 - 1350\n\x0c</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> WEEK 1-17\n\nT1161 LECO3\n\nBSTAT\nLEARNING\nIT\n\nTHAMKK\n\x0c</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111161 LECO3\nBSTAT\nELEARNING\nSIT\n\nTHAMKK\n\x0c</t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c</t>
+          <t xml:space="preserve"> K 1-17\nT1163 TUT03\nDIGBIZ\nELEARNING\nSIT\n\nATANTC\n\x0c</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111163 TUTO3\nDIGBIZ\nELEARNING\nSIT\n\n1TANTC\n\x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\n[T1162 LABOS\nNETWKT\nL.629 SIT\nCL14\n1SEETOHCH\n\x0c</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111162 LABO3\nNETWKT\nL.629 SIT\nCL14\n1ISEETOHCH\n\x0c</t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
         <is>
           <t xml:space="preserve"> \x0c</t>
         </is>
@@ -724,40 +668,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> WEEK 1-17\n\nT1163 LECO3\n\nDIGBIZ\nLEARNING\nIT\n\nENDRICKT\n\x0c</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111163 LECO3\nDIGBIZ\nELEARNING\nSIT\n\nKENDRICKT\n\x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\nT1165 LABO3\nXD\n.639 SIT\nE22\nHAIMS\n\x0c</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111165 LABO3\nUXD\n\nL.639 SIT\nCL22\nCHAIMS\n\x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\nT1163 TUTO3\nDIGBIZ\nELEARNING\nSIT\n\n1TANTC\n\x0c</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111163 TUTO3\nDIGBIZ\nELEARNING\nSIT\n\n1TANTC\n\x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\n[T1162 LABO3\nNETWKT\nL.629 SIT\nCL14\n1SEETOHCH\n\x0c</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111162 LABO3\nNETWKT\nL.629 SIT\nCL14\n1ISEETOHCH\n\x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\nT1161 TUTO3\nBSTAT\n\nL.605 SIT\nTR5\n1DICKSONL\n\x0c</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WEEK 1-17\n111161 TUTO3\nBSTAT\n\nL.605 SIT\nTRS\n1TDICKSONL\n\x0c</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t xml:space="preserve"> \x0c</t>
         </is>
@@ -774,40 +708,30 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> WEEK 1-17\n\nIT1163 LECO3\n\nDIGBIZ\nLEARNING\nIT\n\nKENDRICKT\n\x0c</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111163 LECO3\nDIGBIZ\nELEARNING\nSIT\n\nKENDRICKT\n\x0c</t>
+          <t xml:space="preserve">  \n\x0c</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111165 LABO3\nUXD\n\nL.639 SIT\nCL22\nCHAIMS\n\x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\nT1164 TUT03\nDAV\nELEARNING\nSIT\n\nLEEFY\n\x0c</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111164 TUTO3\nDAV\nELEARNING\nSIT\n\nLEEFY\n\x0c</t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\nT1161 TUTO3\nBSTAT\n\nL.605 SIT\nTRS\n1DICKSONL\n\x0c</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WEEK 1-17\n111161 TUTO3\nBSTAT\n\nL.605 SIT\nTRS\n1DICKSONL\n\x0c</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
         <is>
           <t xml:space="preserve"> \x0c</t>
         </is>
@@ -824,40 +748,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> WEEK 1-17\n\nT1162 LECO3\nETWKT\nLEARNING\nIT\n\nBRYANH\n\x0c</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111162 LECO3\nNETWKT\nELEARNING\nSIT\n\nBRYANH\n\x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\nT1166 LABO3\nPPDPJ\n\n639 SIT\n\nL22\n\nHUAYK\n\x0c</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111166 LABO3\nAPPDPJ\nL.639 SIT\nCL22\nCHUAYK\n\x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\n111162 TUT03\nNETWKT\nELEARNING\nSIT\n\n1SEETOHCH\n\x0c</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111162 TUTO3\nNETWKT\nELEARNING\nSIT\n\n1ISEETOHCH\n\x0c</t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\nT1161 TUTO3\nBSTAT\n\nL.605 SIT\nTRS\n1DICKSONL\n\x0c</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WEEK 1-17\n111161 TUTO3\nBSTAT\n\nL.605 SIT\nTRS\n1TDICKSONL\n\x0c</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
         <is>
           <t xml:space="preserve"> \x0c</t>
         </is>
@@ -869,27 +783,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> \x0c  \n\x0c</t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> WEEK 1-17\nT1164 LECO3\nAV\nLEARNING\nIT\n\nEECH\n\x0c</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111164 LECO3\nDAV\nELEARNING\nSIT\n\nWEECH\n\x0c</t>
+          <t xml:space="preserve"> WEEK 1-17\nT1166 LABO3\nPPDPJ\n639 SIT\nLP?\nHUAYK\n\x0c</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\n111166 LABO3\nAPPDPJ\nL.639 SIT\nCL22\nCHUAYK\n\x0c</t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WEEK 1-17\nITA104 LECO1\nANAGEO\nFLEARNING\nSIT\n\nTKHORNH\n\x0c</t>
+          <t xml:space="preserve"> \x0c</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -900,66 +814,6 @@
       <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1800 - 1840\n\x0c  \n\x0c</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WEEK 1-17\nITA104 LECO1\nANAGEO\nFLEARNING\nSIT\n\n1KHORNH\n\x0c</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> \x0c</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  \n\x0c</t>
         </is>
       </c>
     </row>
